--- a/Data/EC/NIT-9000415982.xlsx
+++ b/Data/EC/NIT-9000415982.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23757941-BC64-4AA3-8591-C7FFA3065081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5BC47F5-7396-4AF5-9494-B6A84A99F6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{87CE80FE-2783-49CA-9882-8D80180BF3AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{36A5688E-C5D5-45D9-93D1-465EA0F6A078}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="196">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,535 +65,532 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73184779</t>
-  </si>
-  <si>
-    <t>LEONARDO FAVIO BARRIOS BANDA</t>
+    <t>1019027850</t>
+  </si>
+  <si>
+    <t>DIANA PAOLA CAMEJO ZULUAGA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1047439302</t>
+  </si>
+  <si>
+    <t>PABLO ARTURO CAMEJO ZULUAGA</t>
+  </si>
+  <si>
+    <t>9149621</t>
+  </si>
+  <si>
+    <t>CESAR TULIO MEJIA GONZALEZ</t>
+  </si>
+  <si>
+    <t>73082540</t>
+  </si>
+  <si>
+    <t>EDGAR ASDRUBAL CAMEJO ATAYA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1044908617</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO GODOY MORELO</t>
+  </si>
+  <si>
+    <t>1052954253</t>
+  </si>
+  <si>
+    <t>RAMON ANTONIO MEJIA MEJIA</t>
+  </si>
+  <si>
+    <t>3814855</t>
+  </si>
+  <si>
+    <t>FELIPE SANTIAGO PEREZ MIRANDA</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1047445205</t>
+  </si>
+  <si>
+    <t>HENRY ARTURO CAMEJO JIMENEZ</t>
+  </si>
+  <si>
+    <t>30882755</t>
+  </si>
+  <si>
+    <t>KATHERYNE DEL CARMEN DUQUE CASTRO</t>
+  </si>
+  <si>
+    <t>9101973</t>
+  </si>
+  <si>
+    <t>CRISTIAN ALFONSO RIVERA SIMANCAS</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>9292477</t>
+  </si>
+  <si>
+    <t>MANUEL ANTONIO GONZALEZ ROMERO</t>
+  </si>
+  <si>
+    <t>73188305</t>
+  </si>
+  <si>
+    <t>JHON JAIRO VANEGAS MARTINEZ</t>
+  </si>
+  <si>
+    <t>73132054</t>
+  </si>
+  <si>
+    <t>JAVIER SANTANA YEPES</t>
+  </si>
+  <si>
+    <t>1143351241</t>
+  </si>
+  <si>
+    <t>FREDY HERNAN PALENCIA MENDOZA</t>
+  </si>
+  <si>
+    <t>73114501</t>
+  </si>
+  <si>
+    <t>REMBERTO MANUEL MEZA FIGUEROA</t>
+  </si>
+  <si>
+    <t>1143354727</t>
+  </si>
+  <si>
+    <t>JOSE RINARDY PEÑA ZULUAGA</t>
+  </si>
+  <si>
+    <t>73153045</t>
+  </si>
+  <si>
+    <t>FRANKLIN MUÑOZ PAYARES</t>
+  </si>
+  <si>
+    <t>1047463901</t>
+  </si>
+  <si>
+    <t>LUIS MANUEL GODOY CANTILLO</t>
+  </si>
+  <si>
+    <t>73194461</t>
+  </si>
+  <si>
+    <t>LIBARDO JOSE NAVARRO VILLACOB</t>
+  </si>
+  <si>
+    <t>1143377369</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO PEREZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>73191634</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS MARTINEZ GUERRERO</t>
+  </si>
+  <si>
+    <t>73226983</t>
+  </si>
+  <si>
+    <t>CESAR BARRETO POSSO</t>
+  </si>
+  <si>
+    <t>1050458878</t>
+  </si>
+  <si>
+    <t>JUAN ELIAS MARTINEZ MIRANDA</t>
+  </si>
+  <si>
+    <t>3838903</t>
+  </si>
+  <si>
+    <t>SOLORZANO GONZALEZ DEYBY MIGUEL</t>
+  </si>
+  <si>
+    <t>73155279</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE SOLIPAS CASTRO</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>9289609</t>
+  </si>
+  <si>
+    <t>FERNANDO LUIS LARA TORRES</t>
+  </si>
+  <si>
+    <t>9297065</t>
+  </si>
+  <si>
+    <t>FREDIS CARRILLO PUERTA</t>
+  </si>
+  <si>
+    <t>73183780</t>
+  </si>
+  <si>
+    <t>OBEYMER GOMEZ LARES</t>
+  </si>
+  <si>
+    <t>1143357213</t>
+  </si>
+  <si>
+    <t>KEVIN ANGULO MARIMON</t>
+  </si>
+  <si>
+    <t>9289307</t>
+  </si>
+  <si>
+    <t>RONAL ANTONIO MARIMON SERRANO</t>
+  </si>
+  <si>
+    <t>1044911798</t>
+  </si>
+  <si>
+    <t>GADIS IRIARTE RUIZ</t>
+  </si>
+  <si>
+    <t>3906363</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL BERRIO ALMANZA</t>
+  </si>
+  <si>
+    <t>9202336</t>
+  </si>
+  <si>
+    <t>ERIBERTO TORRES HERRERA</t>
+  </si>
+  <si>
+    <t>73196659</t>
+  </si>
+  <si>
+    <t>JAYSON JAVIER O BYRNE GONZALEZ</t>
+  </si>
+  <si>
+    <t>1102864954</t>
+  </si>
+  <si>
+    <t>LUIS ANTONIO PINEDA MARTINEZ</t>
+  </si>
+  <si>
+    <t>9097979</t>
+  </si>
+  <si>
+    <t>JUAN GUILLERMO MADRID PINO</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>3814916</t>
+  </si>
+  <si>
+    <t>OSMIRO SALAS CASTILLA</t>
+  </si>
+  <si>
+    <t>1047367599</t>
+  </si>
+  <si>
+    <t>CRISTIAN DAVID ACEVEDO CHICO</t>
+  </si>
+  <si>
+    <t>73152882</t>
+  </si>
+  <si>
+    <t>JHON JAIRO CUADRO MEDRANO</t>
+  </si>
+  <si>
+    <t>73104905</t>
+  </si>
+  <si>
+    <t>JOSE LUIS HERNANDEZ BLANCO</t>
+  </si>
+  <si>
+    <t>6617517</t>
+  </si>
+  <si>
+    <t>WILLIAM EGUITH MEZA FIGUEROA</t>
+  </si>
+  <si>
+    <t>1047436800</t>
+  </si>
+  <si>
+    <t>OLIVER DAVID CANTILLOS SIERRA</t>
+  </si>
+  <si>
+    <t>9294023</t>
+  </si>
+  <si>
+    <t>JOSE DAVID PEREZ BARONA</t>
+  </si>
+  <si>
+    <t>1066570669</t>
+  </si>
+  <si>
+    <t>JONATAN JADER CANTELLO ACOSTA</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1143333159</t>
+  </si>
+  <si>
+    <t>LUIS IGNACIO SALAS GONZALEZ</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>30840537</t>
+  </si>
+  <si>
+    <t>SAHILY SUSANA RECUERO VELASQUEZ</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>73134933</t>
+  </si>
+  <si>
+    <t>ANDRES ANTONIO PITALUA BASSA</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>9104497</t>
+  </si>
+  <si>
+    <t>ALBERTO ENRIQUE AYALA MURILLO</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>9175295</t>
+  </si>
+  <si>
+    <t>EDINSON MIGUEL MERCADO CARO</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>73168128</t>
+  </si>
+  <si>
+    <t>ARTURO HERRERA GUZMAN</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1070811246</t>
+  </si>
+  <si>
+    <t>JANER MANUEL PEREZ POLO</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>73155279</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE SOLIPAS CASTRO</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>73168128</t>
-  </si>
-  <si>
-    <t>ARTURO HERRERA GUZMAN</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>9104497</t>
-  </si>
-  <si>
-    <t>ALBERTO ENRIQUE AYALA MURILLO</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>9097979</t>
-  </si>
-  <si>
-    <t>JUAN GUILLERMO MADRID PINO</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>9289609</t>
-  </si>
-  <si>
-    <t>FERNANDO LUIS LARA TORRES</t>
-  </si>
-  <si>
-    <t>3814855</t>
-  </si>
-  <si>
-    <t>FELIPE SANTIAGO PEREZ MIRANDA</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>3814916</t>
-  </si>
-  <si>
-    <t>OSMIRO SALAS CASTILLA</t>
-  </si>
-  <si>
-    <t>9292477</t>
-  </si>
-  <si>
-    <t>MANUEL ANTONIO GONZALEZ ROMERO</t>
-  </si>
-  <si>
-    <t>73188305</t>
-  </si>
-  <si>
-    <t>JHON JAIRO VANEGAS MARTINEZ</t>
-  </si>
-  <si>
-    <t>30840537</t>
-  </si>
-  <si>
-    <t>SAHILY SUSANA RECUERO VELASQUEZ</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>73132054</t>
-  </si>
-  <si>
-    <t>JAVIER SANTANA YEPES</t>
-  </si>
-  <si>
-    <t>1143351241</t>
-  </si>
-  <si>
-    <t>FREDY HERNAN PALENCIA MENDOZA</t>
-  </si>
-  <si>
-    <t>1047367599</t>
-  </si>
-  <si>
-    <t>CRISTIAN DAVID ACEVEDO CHICO</t>
-  </si>
-  <si>
-    <t>1047445205</t>
-  </si>
-  <si>
-    <t>HENRY ARTURO CAMEJO JIMENEZ</t>
-  </si>
-  <si>
-    <t>1019027850</t>
-  </si>
-  <si>
-    <t>DIANA PAOLA CAMEJO ZULUAGA</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>9297065</t>
-  </si>
-  <si>
-    <t>FREDIS CARRILLO PUERTA</t>
-  </si>
-  <si>
-    <t>73152882</t>
-  </si>
-  <si>
-    <t>JHON JAIRO CUADRO MEDRANO</t>
-  </si>
-  <si>
-    <t>73183780</t>
-  </si>
-  <si>
-    <t>OBEYMER GOMEZ LARES</t>
-  </si>
-  <si>
-    <t>73114501</t>
-  </si>
-  <si>
-    <t>REMBERTO MANUEL MEZA FIGUEROA</t>
-  </si>
-  <si>
-    <t>1143354727</t>
-  </si>
-  <si>
-    <t>JOSE RINARDY PEÑA ZULUAGA</t>
-  </si>
-  <si>
-    <t>1047439302</t>
-  </si>
-  <si>
-    <t>PABLO ARTURO CAMEJO ZULUAGA</t>
-  </si>
-  <si>
-    <t>1143357213</t>
-  </si>
-  <si>
-    <t>KEVIN ANGULO MARIMON</t>
-  </si>
-  <si>
-    <t>9289307</t>
-  </si>
-  <si>
-    <t>RONAL ANTONIO MARIMON SERRANO</t>
-  </si>
-  <si>
-    <t>1044911798</t>
-  </si>
-  <si>
-    <t>GADIS IRIARTE RUIZ</t>
-  </si>
-  <si>
-    <t>30882755</t>
-  </si>
-  <si>
-    <t>KATHERYNE DEL CARMEN DUQUE CASTRO</t>
-  </si>
-  <si>
-    <t>1143333159</t>
-  </si>
-  <si>
-    <t>LUIS IGNACIO SALAS GONZALEZ</t>
-  </si>
-  <si>
-    <t>73134933</t>
-  </si>
-  <si>
-    <t>ANDRES ANTONIO PITALUA BASSA</t>
-  </si>
-  <si>
-    <t>73104905</t>
-  </si>
-  <si>
-    <t>JOSE LUIS HERNANDEZ BLANCO</t>
-  </si>
-  <si>
-    <t>73153045</t>
-  </si>
-  <si>
-    <t>FRANKLIN MUÑOZ PAYARES</t>
-  </si>
-  <si>
-    <t>3906363</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL BERRIO ALMANZA</t>
-  </si>
-  <si>
-    <t>1047463901</t>
-  </si>
-  <si>
-    <t>LUIS MANUEL GODOY CANTILLO</t>
-  </si>
-  <si>
-    <t>73194461</t>
-  </si>
-  <si>
-    <t>LIBARDO JOSE NAVARRO VILLACOB</t>
-  </si>
-  <si>
-    <t>6617517</t>
-  </si>
-  <si>
-    <t>WILLIAM EGUITH MEZA FIGUEROA</t>
-  </si>
-  <si>
-    <t>1047436800</t>
-  </si>
-  <si>
-    <t>OLIVER DAVID CANTILLOS SIERRA</t>
-  </si>
-  <si>
-    <t>1044908617</t>
-  </si>
-  <si>
-    <t>JOSE FRANCISCO GODOY MORELO</t>
-  </si>
-  <si>
-    <t>9202336</t>
-  </si>
-  <si>
-    <t>ERIBERTO TORRES HERRERA</t>
-  </si>
-  <si>
-    <t>9101973</t>
-  </si>
-  <si>
-    <t>CRISTIAN ALFONSO RIVERA SIMANCAS</t>
-  </si>
-  <si>
-    <t>1143377369</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO PEREZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>9175295</t>
-  </si>
-  <si>
-    <t>EDINSON MIGUEL MERCADO CARO</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>9294023</t>
-  </si>
-  <si>
-    <t>JOSE DAVID PEREZ BARONA</t>
-  </si>
-  <si>
-    <t>73191634</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS MARTINEZ GUERRERO</t>
-  </si>
-  <si>
-    <t>9149621</t>
-  </si>
-  <si>
-    <t>CESAR TULIO MEJIA GONZALEZ</t>
-  </si>
-  <si>
-    <t>73196659</t>
-  </si>
-  <si>
-    <t>JAYSON JAVIER O BYRNE GONZALEZ</t>
-  </si>
-  <si>
-    <t>1052954253</t>
-  </si>
-  <si>
-    <t>RAMON ANTONIO MEJIA MEJIA</t>
-  </si>
-  <si>
-    <t>73082540</t>
-  </si>
-  <si>
-    <t>EDGAR ASDRUBAL CAMEJO ATAYA</t>
-  </si>
-  <si>
-    <t>73226983</t>
-  </si>
-  <si>
-    <t>CESAR BARRETO POSSO</t>
-  </si>
-  <si>
-    <t>1050458878</t>
-  </si>
-  <si>
-    <t>JUAN ELIAS MARTINEZ MIRANDA</t>
-  </si>
-  <si>
-    <t>1070811246</t>
-  </si>
-  <si>
-    <t>JANER MANUEL PEREZ POLO</t>
-  </si>
-  <si>
-    <t>1066570669</t>
-  </si>
-  <si>
-    <t>JONATAN JADER CANTELLO ACOSTA</t>
-  </si>
-  <si>
-    <t>3838903</t>
-  </si>
-  <si>
-    <t>SOLORZANO GONZALEZ DEYBY MIGUEL</t>
-  </si>
-  <si>
-    <t>1102864954</t>
-  </si>
-  <si>
-    <t>LUIS ANTONIO PINEDA MARTINEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -692,7 +689,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -705,9 +704,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -907,23 +904,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,10 +948,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,7 +1004,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B97E7F2-3F44-7D11-475E-F08DE3F461C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E0A963-DF08-B7A4-85C1-C18562E1F9A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,8 +1355,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D33702-34C4-4E13-8EBC-92E8E09DAAE7}">
-  <dimension ref="B2:J230"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83721CB-E486-4254-BFDF-04AAA87C58FC}">
+  <dimension ref="B2:J215"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1383,7 +1380,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1428,7 +1425,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1460,12 +1457,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>17270502</v>
+        <v>16452862</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1476,17 +1473,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1513,13 +1510,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1536,10 +1533,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>104000</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>3549000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1550,19 +1547,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>160000</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>4000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1573,19 +1570,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>358516</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>18505500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1596,19 +1593,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>480000</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>49742284</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1625,13 +1622,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>104000</v>
       </c>
       <c r="G20" s="18">
-        <v>1423500</v>
+        <v>3549000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1642,19 +1639,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>56940</v>
+        <v>160000</v>
       </c>
       <c r="G21" s="18">
-        <v>1423500</v>
+        <v>4000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1665,13 +1662,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>27578</v>
@@ -1688,19 +1685,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>358516</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>18505500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1711,19 +1708,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>52000</v>
+        <v>4107</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>616000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1734,19 +1731,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>52000</v>
+        <v>480000</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>49742284</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1757,16 +1754,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>52000</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>1300000</v>
@@ -1780,19 +1777,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1803,19 +1800,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>104000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>3549000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1826,19 +1823,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>4000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1849,19 +1846,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1872,19 +1869,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>32000</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>800000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1895,19 +1892,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>38133</v>
+        <v>358516</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>18505500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1918,19 +1915,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>480000</v>
       </c>
       <c r="G33" s="18">
-        <v>877803</v>
+        <v>49742284</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1941,19 +1938,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>35112</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1964,19 +1961,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>35112</v>
+        <v>60000</v>
       </c>
       <c r="G35" s="18">
-        <v>877803</v>
+        <v>1500000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1987,19 +1984,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
-        <v>35112</v>
+        <v>32000</v>
       </c>
       <c r="G36" s="18">
-        <v>877803</v>
+        <v>800000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -2010,19 +2007,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>35112</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>877803</v>
+        <v>689454</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -2033,19 +2030,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18">
-        <v>35112</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>877803</v>
+        <v>900000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -2062,13 +2059,13 @@
         <v>27</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -2079,19 +2076,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
-        <v>35112</v>
+        <v>104000</v>
       </c>
       <c r="G40" s="18">
-        <v>877803</v>
+        <v>3549000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2102,19 +2099,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
-        <v>35112</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -2125,19 +2122,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F42" s="18">
-        <v>35112</v>
+        <v>60000</v>
       </c>
       <c r="G42" s="18">
-        <v>877803</v>
+        <v>1500000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2148,19 +2145,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F43" s="18">
-        <v>35112</v>
+        <v>160000</v>
       </c>
       <c r="G43" s="18">
-        <v>877803</v>
+        <v>4000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2171,19 +2168,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F44" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G44" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2194,19 +2191,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2217,19 +2214,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F46" s="18">
-        <v>52000</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
-        <v>1300000</v>
+        <v>689454</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2240,19 +2237,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F47" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G47" s="18">
-        <v>1300000</v>
+        <v>4000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2263,19 +2260,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F48" s="18">
-        <v>52000</v>
+        <v>27578</v>
       </c>
       <c r="G48" s="18">
-        <v>1300000</v>
+        <v>737717</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2286,19 +2283,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F49" s="18">
-        <v>52000</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
-        <v>1300000</v>
+        <v>689454</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2309,19 +2306,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F50" s="18">
-        <v>52000</v>
+        <v>358516</v>
       </c>
       <c r="G50" s="18">
-        <v>1300000</v>
+        <v>18505500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2332,19 +2329,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F51" s="18">
-        <v>52000</v>
+        <v>480000</v>
       </c>
       <c r="G51" s="18">
-        <v>1300000</v>
+        <v>49742284</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2355,19 +2352,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>28000</v>
       </c>
       <c r="G52" s="18">
-        <v>1300000</v>
+        <v>700000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2378,19 +2375,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
         <v>27578</v>
       </c>
       <c r="G53" s="18">
-        <v>1300000</v>
+        <v>737717</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2401,19 +2398,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>68000</v>
       </c>
       <c r="G54" s="18">
-        <v>1300000</v>
+        <v>1700000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2424,19 +2421,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F55" s="18">
         <v>27578</v>
       </c>
       <c r="G55" s="18">
-        <v>1300000</v>
+        <v>689454</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2447,19 +2444,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>52000</v>
       </c>
       <c r="G56" s="18">
-        <v>689454</v>
+        <v>1700000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2470,19 +2467,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F57" s="18">
-        <v>60000</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2493,13 +2490,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F58" s="18">
         <v>60000</v>
@@ -2516,19 +2513,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F59" s="18">
-        <v>60000</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2539,19 +2536,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F60" s="18">
-        <v>32000</v>
+        <v>80000</v>
       </c>
       <c r="G60" s="18">
-        <v>800000</v>
+        <v>2000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2562,19 +2559,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F61" s="18">
-        <v>44000</v>
+        <v>104000</v>
       </c>
       <c r="G61" s="18">
-        <v>1100000</v>
+        <v>3549000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2585,19 +2582,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F62" s="18">
-        <v>44000</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
-        <v>1100000</v>
+        <v>689454</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2608,19 +2605,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F63" s="18">
-        <v>44000</v>
+        <v>27578</v>
       </c>
       <c r="G63" s="18">
-        <v>1100000</v>
+        <v>689454</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2631,19 +2628,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F64" s="18">
-        <v>44000</v>
+        <v>27578</v>
       </c>
       <c r="G64" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2654,19 +2651,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F65" s="18">
-        <v>44000</v>
+        <v>60000</v>
       </c>
       <c r="G65" s="18">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2677,19 +2674,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
-        <v>44000</v>
+        <v>160000</v>
       </c>
       <c r="G66" s="18">
-        <v>1100000</v>
+        <v>4000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2700,19 +2697,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
-        <v>44000</v>
+        <v>50000</v>
       </c>
       <c r="G67" s="18">
-        <v>1100000</v>
+        <v>1250000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2723,19 +2720,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>44000</v>
+        <v>27578</v>
       </c>
       <c r="G68" s="18">
-        <v>1100000</v>
+        <v>689454</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2746,19 +2743,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F69" s="18">
-        <v>44000</v>
+        <v>27578</v>
       </c>
       <c r="G69" s="18">
-        <v>1100000</v>
+        <v>689454</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2769,19 +2766,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F70" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2792,19 +2789,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F71" s="18">
-        <v>44000</v>
+        <v>32000</v>
       </c>
       <c r="G71" s="18">
-        <v>1100000</v>
+        <v>800000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2815,19 +2812,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F72" s="18">
-        <v>44000</v>
+        <v>27578</v>
       </c>
       <c r="G72" s="18">
-        <v>1100000</v>
+        <v>689454</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2838,19 +2835,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F73" s="18">
-        <v>44000</v>
+        <v>160000</v>
       </c>
       <c r="G73" s="18">
-        <v>1100000</v>
+        <v>4000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2861,13 +2858,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F74" s="18">
         <v>27578</v>
@@ -2884,19 +2881,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F75" s="18">
         <v>27578</v>
       </c>
       <c r="G75" s="18">
-        <v>689454</v>
+        <v>737717</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2907,13 +2904,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F76" s="18">
         <v>27578</v>
@@ -2930,19 +2927,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F77" s="18">
-        <v>27578</v>
+        <v>358516</v>
       </c>
       <c r="G77" s="18">
-        <v>689454</v>
+        <v>18505500</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2953,19 +2950,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F78" s="18">
         <v>27578</v>
       </c>
       <c r="G78" s="18">
-        <v>689454</v>
+        <v>737717</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2976,19 +2973,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F79" s="18">
-        <v>80000</v>
+        <v>480000</v>
       </c>
       <c r="G79" s="18">
-        <v>2000000</v>
+        <v>49742284</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2999,19 +2996,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F80" s="18">
-        <v>80000</v>
+        <v>28000</v>
       </c>
       <c r="G80" s="18">
-        <v>2000000</v>
+        <v>700000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -3022,19 +3019,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F81" s="18">
-        <v>80000</v>
+        <v>27578</v>
       </c>
       <c r="G81" s="18">
-        <v>2000000</v>
+        <v>737717</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -3045,19 +3042,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F82" s="18">
-        <v>80000</v>
+        <v>28000</v>
       </c>
       <c r="G82" s="18">
-        <v>2000000</v>
+        <v>700000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -3068,19 +3065,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F83" s="18">
-        <v>104000</v>
+        <v>36000</v>
       </c>
       <c r="G83" s="18">
-        <v>2600000</v>
+        <v>1890000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -3091,19 +3088,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F84" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G84" s="18">
-        <v>2600000</v>
+        <v>1300000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -3114,19 +3111,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F85" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G85" s="18">
-        <v>2600000</v>
+        <v>689454</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -3137,19 +3134,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F86" s="18">
-        <v>104000</v>
+        <v>60000</v>
       </c>
       <c r="G86" s="18">
-        <v>2600000</v>
+        <v>1500000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3160,19 +3157,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F87" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G87" s="18">
-        <v>2600000</v>
+        <v>900000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3183,19 +3180,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F88" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G88" s="18">
-        <v>2600000</v>
+        <v>689454</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3206,19 +3203,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F89" s="18">
-        <v>104000</v>
+        <v>80000</v>
       </c>
       <c r="G89" s="18">
-        <v>2600000</v>
+        <v>2000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3229,19 +3226,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F90" s="18">
         <v>104000</v>
       </c>
       <c r="G90" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3252,19 +3249,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G91" s="18">
-        <v>2600000</v>
+        <v>689454</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3275,19 +3272,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="F92" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G92" s="18">
-        <v>2600000</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3298,19 +3295,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F93" s="18">
-        <v>104000</v>
+        <v>60000</v>
       </c>
       <c r="G93" s="18">
-        <v>2600000</v>
+        <v>1500000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3321,19 +3318,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F94" s="18">
-        <v>104000</v>
+        <v>160000</v>
       </c>
       <c r="G94" s="18">
-        <v>2600000</v>
+        <v>4000000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3344,19 +3341,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F95" s="18">
-        <v>104000</v>
+        <v>50000</v>
       </c>
       <c r="G95" s="18">
-        <v>2600000</v>
+        <v>1250000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3367,19 +3364,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F96" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G96" s="18">
-        <v>2600000</v>
+        <v>689454</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3390,19 +3387,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F97" s="18">
-        <v>104000</v>
+        <v>40000</v>
       </c>
       <c r="G97" s="18">
-        <v>2600000</v>
+        <v>1000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3413,19 +3410,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E98" s="16" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F98" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G98" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3436,19 +3433,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F99" s="18">
-        <v>104000</v>
+        <v>160000</v>
       </c>
       <c r="G99" s="18">
-        <v>2600000</v>
+        <v>4000000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3459,19 +3456,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F100" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G100" s="18">
-        <v>2600000</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3482,19 +3479,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F101" s="18">
-        <v>104000</v>
+        <v>28000</v>
       </c>
       <c r="G101" s="18">
-        <v>2600000</v>
+        <v>2415000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3505,19 +3502,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F102" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G102" s="18">
-        <v>2600000</v>
+        <v>737717</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3528,19 +3525,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F103" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G103" s="18">
-        <v>2600000</v>
+        <v>689454</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3551,19 +3548,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F104" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G104" s="18">
-        <v>2600000</v>
+        <v>689454</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3574,19 +3571,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F105" s="18">
-        <v>104000</v>
+        <v>358516</v>
       </c>
       <c r="G105" s="18">
-        <v>2600000</v>
+        <v>18505500</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3597,19 +3594,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F106" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G106" s="18">
-        <v>2600000</v>
+        <v>737717</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3620,19 +3617,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F107" s="18">
-        <v>104000</v>
+        <v>480000</v>
       </c>
       <c r="G107" s="18">
-        <v>2600000</v>
+        <v>49742284</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3643,19 +3640,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F108" s="18">
-        <v>104000</v>
+        <v>27578</v>
       </c>
       <c r="G108" s="18">
-        <v>2600000</v>
+        <v>737717</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3666,19 +3663,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F109" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G109" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3689,19 +3686,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F110" s="18">
         <v>104000</v>
       </c>
       <c r="G110" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3712,19 +3709,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D111" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D111" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E111" s="16" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F111" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G111" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3735,19 +3732,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F112" s="18">
         <v>104000</v>
       </c>
       <c r="G112" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3758,19 +3755,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D113" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D113" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E113" s="16" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F113" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G113" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3781,19 +3778,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F114" s="18">
         <v>104000</v>
       </c>
       <c r="G114" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3804,19 +3801,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D115" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E115" s="16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F115" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G115" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3827,19 +3824,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F116" s="18">
         <v>104000</v>
       </c>
       <c r="G116" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3850,19 +3847,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D117" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D117" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E117" s="16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F117" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G117" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3873,19 +3870,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F118" s="18">
         <v>104000</v>
       </c>
       <c r="G118" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3896,19 +3893,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F119" s="18">
-        <v>104000</v>
+        <v>29509</v>
       </c>
       <c r="G119" s="18">
-        <v>2600000</v>
+        <v>737717</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3919,19 +3916,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D120" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D120" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E120" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F120" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G120" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3942,19 +3939,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F121" s="18">
         <v>104000</v>
       </c>
       <c r="G121" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3965,19 +3962,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F122" s="18">
-        <v>104000</v>
+        <v>29509</v>
       </c>
       <c r="G122" s="18">
-        <v>2600000</v>
+        <v>737717</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3988,19 +3985,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D123" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E123" s="16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F123" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G123" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -4011,19 +4008,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F124" s="18">
         <v>104000</v>
       </c>
       <c r="G124" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -4034,19 +4031,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F125" s="18">
-        <v>104000</v>
+        <v>29509</v>
       </c>
       <c r="G125" s="18">
-        <v>2600000</v>
+        <v>737717</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -4057,19 +4054,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D126" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E126" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F126" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G126" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -4080,19 +4077,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F127" s="18">
         <v>104000</v>
       </c>
       <c r="G127" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -4103,19 +4100,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D128" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E128" s="16" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F128" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G128" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4126,19 +4123,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F129" s="18">
         <v>104000</v>
       </c>
       <c r="G129" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4149,19 +4146,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D130" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D130" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E130" s="16" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F130" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G130" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4172,19 +4169,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="F131" s="18">
         <v>104000</v>
       </c>
       <c r="G131" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4195,19 +4192,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D132" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D132" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E132" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F132" s="18">
-        <v>104000</v>
+        <v>32000</v>
       </c>
       <c r="G132" s="18">
-        <v>2600000</v>
+        <v>800000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4218,19 +4215,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F133" s="18">
         <v>104000</v>
       </c>
       <c r="G133" s="18">
-        <v>2600000</v>
+        <v>3549000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4241,19 +4238,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="F134" s="18">
-        <v>27578</v>
+        <v>32000</v>
       </c>
       <c r="G134" s="18">
-        <v>689454</v>
+        <v>800000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4264,19 +4261,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E135" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F135" s="18">
-        <v>27578</v>
+        <v>104000</v>
       </c>
       <c r="G135" s="18">
-        <v>689454</v>
+        <v>3549000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4287,19 +4284,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D136" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F136" s="18">
-        <v>27578</v>
+        <v>104000</v>
       </c>
       <c r="G136" s="18">
-        <v>689454</v>
+        <v>3549000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4310,19 +4307,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="F137" s="18">
-        <v>27578</v>
+        <v>104000</v>
       </c>
       <c r="G137" s="18">
-        <v>689455</v>
+        <v>3549000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4333,19 +4330,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D138" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F138" s="18">
-        <v>27578</v>
+        <v>104000</v>
       </c>
       <c r="G138" s="18">
-        <v>689455</v>
+        <v>3549000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4356,19 +4353,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E139" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F139" s="18">
-        <v>27578</v>
+        <v>104000</v>
       </c>
       <c r="G139" s="18">
-        <v>689455</v>
+        <v>3549000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4379,19 +4376,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D140" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F140" s="18">
-        <v>60000</v>
+        <v>104000</v>
       </c>
       <c r="G140" s="18">
-        <v>1500000</v>
+        <v>3549000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4402,19 +4399,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E141" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F141" s="18">
-        <v>60000</v>
+        <v>104000</v>
       </c>
       <c r="G141" s="18">
-        <v>1500000</v>
+        <v>3549000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4425,19 +4422,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F142" s="18">
-        <v>60000</v>
+        <v>104000</v>
       </c>
       <c r="G142" s="18">
-        <v>1500000</v>
+        <v>3549000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4448,19 +4445,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E143" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F143" s="18">
-        <v>160000</v>
+        <v>104000</v>
       </c>
       <c r="G143" s="18">
-        <v>4000000</v>
+        <v>3549000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4471,19 +4468,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="F144" s="18">
-        <v>160000</v>
+        <v>104000</v>
       </c>
       <c r="G144" s="18">
-        <v>4000000</v>
+        <v>3549000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4494,19 +4491,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="F145" s="18">
-        <v>160000</v>
+        <v>104000</v>
       </c>
       <c r="G145" s="18">
-        <v>4000000</v>
+        <v>3549000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4517,19 +4514,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F146" s="18">
-        <v>160000</v>
+        <v>104000</v>
       </c>
       <c r="G146" s="18">
-        <v>4000000</v>
+        <v>3549000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4540,19 +4537,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F147" s="18">
-        <v>160000</v>
+        <v>104000</v>
       </c>
       <c r="G147" s="18">
-        <v>4000000</v>
+        <v>3549000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4563,19 +4560,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F148" s="18">
-        <v>160000</v>
+        <v>104000</v>
       </c>
       <c r="G148" s="18">
-        <v>4000000</v>
+        <v>3549000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4586,19 +4583,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="F149" s="18">
-        <v>50000</v>
+        <v>104000</v>
       </c>
       <c r="G149" s="18">
-        <v>1250000</v>
+        <v>3549000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4609,19 +4606,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F150" s="18">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="G150" s="18">
-        <v>1250000</v>
+        <v>1100000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4632,19 +4629,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F151" s="18">
-        <v>27578</v>
+        <v>104000</v>
       </c>
       <c r="G151" s="18">
-        <v>689454</v>
+        <v>3549000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4655,19 +4652,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="F152" s="18">
-        <v>27578</v>
+        <v>44000</v>
       </c>
       <c r="G152" s="18">
-        <v>689454</v>
+        <v>1100000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4678,19 +4675,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="F153" s="18">
-        <v>60000</v>
+        <v>104000</v>
       </c>
       <c r="G153" s="18">
-        <v>1800000</v>
+        <v>3549000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4707,13 +4704,13 @@
         <v>132</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="F154" s="18">
-        <v>60000</v>
+        <v>44000</v>
       </c>
       <c r="G154" s="18">
-        <v>1800000</v>
+        <v>1100000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4724,19 +4721,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F155" s="18">
-        <v>29509</v>
+        <v>104000</v>
       </c>
       <c r="G155" s="18">
-        <v>737717</v>
+        <v>3549000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4747,19 +4744,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F156" s="18">
-        <v>29509</v>
+        <v>44000</v>
       </c>
       <c r="G156" s="18">
-        <v>737717</v>
+        <v>1100000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4770,19 +4767,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F157" s="18">
-        <v>29509</v>
+        <v>104000</v>
       </c>
       <c r="G157" s="18">
-        <v>737717</v>
+        <v>3549000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4793,19 +4790,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="F158" s="18">
-        <v>33152</v>
+        <v>44000</v>
       </c>
       <c r="G158" s="18">
-        <v>828816</v>
+        <v>1100000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4816,19 +4813,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D159" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F159" s="18">
-        <v>27578</v>
+        <v>104000</v>
       </c>
       <c r="G159" s="18">
-        <v>689454</v>
+        <v>3549000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4839,19 +4836,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D160" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D160" s="17" t="s">
-        <v>140</v>
-      </c>
       <c r="E160" s="16" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="F160" s="18">
-        <v>40000</v>
+        <v>33152</v>
       </c>
       <c r="G160" s="18">
-        <v>1000000</v>
+        <v>1575000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4862,19 +4859,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D161" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E161" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E161" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F161" s="18">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="G161" s="18">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4885,19 +4882,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="D162" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E162" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F162" s="18">
-        <v>40000</v>
+        <v>104000</v>
       </c>
       <c r="G162" s="18">
-        <v>1000000</v>
+        <v>3549000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4908,19 +4905,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E163" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D163" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="F163" s="18">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="G163" s="18">
-        <v>800000</v>
+        <v>1100000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4931,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D164" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="F164" s="18">
-        <v>32000</v>
+        <v>104000</v>
       </c>
       <c r="G164" s="18">
-        <v>800000</v>
+        <v>3549000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4954,19 +4951,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D165" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E165" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E165" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="F165" s="18">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="G165" s="18">
-        <v>800000</v>
+        <v>1100000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4977,19 +4974,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E166" s="16" t="s">
-        <v>103</v>
-      </c>
       <c r="F166" s="18">
-        <v>32000</v>
+        <v>104000</v>
       </c>
       <c r="G166" s="18">
-        <v>800000</v>
+        <v>3549000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -5000,19 +4997,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="F167" s="18">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="G167" s="18">
-        <v>800000</v>
+        <v>1100000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -5023,19 +5020,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F168" s="18">
-        <v>32000</v>
+        <v>104000</v>
       </c>
       <c r="G168" s="18">
-        <v>800000</v>
+        <v>3549000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -5046,19 +5043,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="F169" s="18">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="G169" s="18">
-        <v>800000</v>
+        <v>1100000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -5069,19 +5066,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F170" s="18">
-        <v>32000</v>
+        <v>104000</v>
       </c>
       <c r="G170" s="18">
-        <v>800000</v>
+        <v>3549000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -5092,19 +5089,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="F171" s="18">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="G171" s="18">
-        <v>800000</v>
+        <v>1100000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -5115,19 +5112,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="F172" s="18">
-        <v>32000</v>
+        <v>104000</v>
       </c>
       <c r="G172" s="18">
-        <v>800000</v>
+        <v>3549000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -5138,19 +5135,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F173" s="18">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="G173" s="18">
-        <v>800000</v>
+        <v>1100000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5161,19 +5158,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="F174" s="18">
-        <v>32000</v>
+        <v>104000</v>
       </c>
       <c r="G174" s="18">
-        <v>800000</v>
+        <v>3549000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5184,19 +5181,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="F175" s="18">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="G175" s="18">
-        <v>800000</v>
+        <v>1100000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5207,19 +5204,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="F176" s="18">
-        <v>27578</v>
+        <v>104000</v>
       </c>
       <c r="G176" s="18">
-        <v>689454</v>
+        <v>3549000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5230,19 +5227,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="F177" s="18">
-        <v>27578</v>
+        <v>104000</v>
       </c>
       <c r="G177" s="18">
-        <v>689454</v>
+        <v>3549000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5253,19 +5250,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="F178" s="18">
-        <v>160000</v>
+        <v>104000</v>
       </c>
       <c r="G178" s="18">
-        <v>4000000</v>
+        <v>3549000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5276,19 +5273,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="F179" s="18">
-        <v>160000</v>
+        <v>104000</v>
       </c>
       <c r="G179" s="18">
-        <v>4000000</v>
+        <v>3549000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5299,19 +5296,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="F180" s="18">
-        <v>160000</v>
+        <v>104000</v>
       </c>
       <c r="G180" s="18">
-        <v>4000000</v>
+        <v>3549000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5322,19 +5319,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="F181" s="18">
-        <v>27578</v>
+        <v>104000</v>
       </c>
       <c r="G181" s="18">
-        <v>689455</v>
+        <v>3549000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5345,19 +5342,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="F182" s="18">
-        <v>28000</v>
+        <v>104000</v>
       </c>
       <c r="G182" s="18">
-        <v>700000</v>
+        <v>3549000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5368,19 +5365,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="F183" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G183" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5391,19 +5388,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="F184" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G184" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5414,19 +5411,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D185" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D185" s="17" t="s">
-        <v>156</v>
-      </c>
       <c r="E185" s="16" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="F185" s="18">
-        <v>32000</v>
+        <v>35112</v>
       </c>
       <c r="G185" s="18">
-        <v>800000</v>
+        <v>1423500</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5437,19 +5434,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="F186" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G186" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5460,19 +5457,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="F187" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G187" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5483,19 +5480,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="F188" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G188" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5506,19 +5503,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F189" s="18">
-        <v>1600</v>
+        <v>35112</v>
       </c>
       <c r="G189" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5529,19 +5526,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D190" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E190" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E190" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F190" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G190" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5552,19 +5549,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E191" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D191" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F191" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G191" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5575,19 +5572,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D192" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E192" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E192" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F192" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G192" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5598,19 +5595,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="F193" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G193" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5621,19 +5618,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="F194" s="18">
-        <v>358516</v>
+        <v>1600</v>
       </c>
       <c r="G194" s="18">
-        <v>8962902</v>
+        <v>1200000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5644,19 +5641,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="F195" s="18">
-        <v>358516</v>
+        <v>38133</v>
       </c>
       <c r="G195" s="18">
-        <v>8962902</v>
+        <v>1300000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5667,19 +5664,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="F196" s="18">
-        <v>358516</v>
+        <v>52000</v>
       </c>
       <c r="G196" s="18">
-        <v>8962902</v>
+        <v>1300000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5690,19 +5687,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="F197" s="18">
-        <v>358516</v>
+        <v>52000</v>
       </c>
       <c r="G197" s="18">
-        <v>8962902</v>
+        <v>1300000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5713,19 +5710,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="F198" s="18">
-        <v>358516</v>
+        <v>50400</v>
       </c>
       <c r="G198" s="18">
-        <v>8962902</v>
+        <v>1423500</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5736,19 +5733,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="F199" s="18">
-        <v>358516</v>
+        <v>52000</v>
       </c>
       <c r="G199" s="18">
-        <v>8962902</v>
+        <v>1300000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5759,19 +5756,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="F200" s="18">
-        <v>27578</v>
+        <v>54000</v>
       </c>
       <c r="G200" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5782,19 +5779,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="F201" s="18">
-        <v>27578</v>
+        <v>52000</v>
       </c>
       <c r="G201" s="18">
-        <v>689454</v>
+        <v>1300000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5805,19 +5802,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="F202" s="18">
-        <v>4107</v>
+        <v>54000</v>
       </c>
       <c r="G202" s="18">
-        <v>616000</v>
+        <v>1423500</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5828,19 +5825,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F203" s="18">
-        <v>480000</v>
+        <v>52000</v>
       </c>
       <c r="G203" s="18">
-        <v>12000000</v>
+        <v>1300000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5851,19 +5848,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="F204" s="18">
-        <v>480000</v>
+        <v>54000</v>
       </c>
       <c r="G204" s="18">
-        <v>12000000</v>
+        <v>1423500</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5874,19 +5871,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="F205" s="18">
-        <v>480000</v>
+        <v>52000</v>
       </c>
       <c r="G205" s="18">
-        <v>12000000</v>
+        <v>1300000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5897,19 +5894,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="F206" s="18">
-        <v>480000</v>
+        <v>52000</v>
       </c>
       <c r="G206" s="18">
-        <v>12000000</v>
+        <v>1300000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5920,19 +5917,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="F207" s="18">
-        <v>480000</v>
+        <v>52000</v>
       </c>
       <c r="G207" s="18">
-        <v>12000000</v>
+        <v>1300000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5943,420 +5940,75 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="F208" s="18">
-        <v>480000</v>
+        <v>52000</v>
       </c>
       <c r="G208" s="18">
-        <v>12000000</v>
+        <v>1300000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
       <c r="J208" s="20"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B209" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F209" s="18">
-        <v>28000</v>
-      </c>
-      <c r="G209" s="18">
-        <v>700000</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B210" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F210" s="18">
-        <v>28000</v>
-      </c>
-      <c r="G210" s="18">
-        <v>700000</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B211" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E211" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F211" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G211" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B212" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F212" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G212" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B213" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E213" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F213" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G213" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
+      <c r="B209" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D209" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F209" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G209" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H209" s="25"/>
+      <c r="I209" s="25"/>
+      <c r="J209" s="26"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B214" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F214" s="18">
-        <v>54000</v>
-      </c>
-      <c r="G214" s="18">
-        <v>1350000</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
+      <c r="B214" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C214" s="32"/>
+      <c r="H214" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B215" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F215" s="18">
-        <v>54000</v>
-      </c>
-      <c r="G215" s="18">
-        <v>1350000</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B216" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D216" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E216" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216" s="18">
-        <v>54000</v>
-      </c>
-      <c r="G216" s="18">
-        <v>1350000</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B217" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F217" s="18">
-        <v>54000</v>
-      </c>
-      <c r="G217" s="18">
-        <v>1350000</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B218" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D218" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F218" s="18">
-        <v>54000</v>
-      </c>
-      <c r="G218" s="18">
-        <v>1350000</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B219" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F219" s="18">
-        <v>54000</v>
-      </c>
-      <c r="G219" s="18">
-        <v>1350000</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B220" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F220" s="18">
-        <v>54000</v>
-      </c>
-      <c r="G220" s="18">
-        <v>1350000</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B221" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F221" s="18">
-        <v>50400</v>
-      </c>
-      <c r="G221" s="18">
-        <v>1350000</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B222" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F222" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G222" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B223" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D223" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F223" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G223" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B224" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C224" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D224" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E224" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F224" s="24">
-        <v>28000</v>
-      </c>
-      <c r="G224" s="24">
-        <v>700000</v>
-      </c>
-      <c r="H224" s="25"/>
-      <c r="I224" s="25"/>
-      <c r="J224" s="26"/>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B229" s="32" t="s">
+      <c r="B215" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C215" s="32"/>
+      <c r="H215" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C229" s="32"/>
-      <c r="H229" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B230" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C230" s="32"/>
-      <c r="H230" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="H230:J230"/>
-    <mergeCell ref="H229:J229"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="H215:J215"/>
+    <mergeCell ref="H214:J214"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
